--- a/test-report/GS-Switch Test Report.xlsx
+++ b/test-report/GS-Switch Test Report.xlsx
@@ -7,15 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Summary" r:id="rId3" sheetId="1"/>
-    <sheet name="Login Page" r:id="rId4" sheetId="2"/>
-    <sheet name="Home Page" r:id="rId5" sheetId="3"/>
-    <sheet name="Client Instruction History Page" r:id="rId6" sheetId="4"/>
+    <sheet name="Default test" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Category</t>
   </si>
@@ -26,7 +24,7 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>3</t>
+    <t>2</t>
   </si>
   <si>
     <t>Failed</t>
@@ -44,19 +42,19 @@
     <t>Start Time</t>
   </si>
   <si>
-    <t>2018-05-10T08:01:42Z</t>
+    <t>2018-05-21T13:04:00Z</t>
   </si>
   <si>
     <t>End Time</t>
   </si>
   <si>
-    <t>2018-05-10T08:02:17Z</t>
+    <t>2018-05-21T13:04:23Z</t>
   </si>
   <si>
     <t>Duration</t>
   </si>
   <si>
-    <t>34963 ms</t>
+    <t>22681 ms</t>
   </si>
   <si>
     <t>TestCase Name</t>
@@ -77,34 +75,22 @@
     <t/>
   </si>
   <si>
-    <t>2018-05-10T08:01:47Z</t>
-  </si>
-  <si>
-    <t>2018-05-10T08:01:51Z</t>
-  </si>
-  <si>
-    <t>4321 ms</t>
-  </si>
-  <si>
-    <t>com.gsswitch.qa.testcases.GsswHomePageTest.clickOnClienentInstPageinquiry</t>
-  </si>
-  <si>
-    <t>2018-05-10T08:02:01Z</t>
-  </si>
-  <si>
-    <t>106 ms</t>
-  </si>
-  <si>
-    <t>com.gsswitch.qa.testcases.GsswClientInstHistoryTest.validateRecords</t>
-  </si>
-  <si>
-    <t>2018-05-10T08:02:10Z</t>
-  </si>
-  <si>
-    <t>2018-05-10T08:02:16Z</t>
-  </si>
-  <si>
-    <t>5427 ms</t>
+    <t>2018-05-21T13:04:08Z</t>
+  </si>
+  <si>
+    <t>2018-05-21T13:04:13Z</t>
+  </si>
+  <si>
+    <t>4388 ms</t>
+  </si>
+  <si>
+    <t>2018-05-21T13:04:18Z</t>
+  </si>
+  <si>
+    <t>2018-05-21T13:04:22Z</t>
+  </si>
+  <si>
+    <t>4347 ms</t>
   </si>
 </sst>
 </file>
@@ -226,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -258,24 +244,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
@@ -424,7 +392,7 @@
     <col min="2" max="2" width="10.6171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.609375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="27.46484375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.078125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="27.46484375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="13.08203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -468,128 +436,24 @@
         <v>22</v>
       </c>
     </row>
-  </sheetData>
-  <printOptions gridLines="true"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="true"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="88.6875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="10.6171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.609375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="27.46484375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.46484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="13.08203125" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="37" t="s">
+    <row r="3">
+      <c r="A3" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="40" t="s">
+      <c r="E3" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="42" t="s">
+      <c r="F3" s="36" t="s">
         <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions gridLines="true"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="true"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="80.2734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="10.6171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.609375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="27.46484375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.46484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="13.08203125" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="48" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="54" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
